--- a/data/trans_dic/P25_11-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_11-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece trastornos depresivos</t>
+          <t>Población que padece trastornos depresivos (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>7,99%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9,53%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8,53%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,42%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,2</t>
+          <t>1,74; 8,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,76</t>
+          <t>1,83; 7,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,33</t>
+          <t>1,47; 7,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,46; 15,42</t>
+          <t>3,55; 13,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,55; 18,26</t>
+          <t>7,6; 15,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,08; 16,45</t>
+          <t>10,09; 20,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,98; 10,21</t>
+          <t>8,94; 17,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,07; 11,61</t>
+          <t>10,14; 20,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 10,2</t>
+          <t>5,54; 11,25</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6,88; 13,11</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6,19; 11,67</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8,21; 15,38</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,31%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 10,78</t>
+          <t>3,41; 12,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,9</t>
+          <t>1,76; 8,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 14,41</t>
+          <t>2,95; 10,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 13,22</t>
+          <t>4,14; 13,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,02</t>
+          <t>4,23; 12,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 14,66</t>
+          <t>2,55; 10,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 10,17</t>
+          <t>4,01; 12,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,79</t>
+          <t>6,41; 17,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 11,34</t>
+          <t>4,51; 10,41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,79; 7,67</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 9,72</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6,5; 13,76</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>5,89%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,0</t>
+          <t>0,0; 23,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 18,89</t>
+          <t>0,0; 28,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 15,91</t>
+          <t>2,12; 28,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 15,6</t>
+          <t>2,35; 31,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 17,41</t>
+          <t>0,0; 21,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 15,05</t>
+          <t>2,53; 24,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 11,29</t>
+          <t>2,54; 22,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 14,58</t>
+          <t>0,0; 19,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 12,51</t>
+          <t>1,49; 13,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 18,64</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,23; 19,03</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 19,41</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,86</t>
+          <t>3,27; 8,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,8</t>
+          <t>2,67; 7,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,74</t>
+          <t>3,02; 7,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,4</t>
+          <t>5,31; 11,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 13,8</t>
+          <t>6,55; 12,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,83; 13,16</t>
+          <t>7,56; 13,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,87</t>
+          <t>7,47; 13,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 9,21</t>
+          <t>9,63; 16,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,41</t>
+          <t>5,56; 9,34</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 9,62</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 9,74</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 13,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece trastornos depresivos (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18196</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15172</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13811</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38616</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>56865</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>59881</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>53440</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>84025</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>75061</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>75052</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>67252</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>122641</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7494; 36335</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6684; 29047</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5601; 28436</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18111; 68275</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>38677; 79298</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>42496; 85963</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>36450; 72020</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>57177; 115867</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>52005; 105663</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>54142; 103169</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>48793; 91996</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>88123; 165108</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24464</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13516</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18320</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30906</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31360</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>18715</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24290</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>47538</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>55825</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>32231</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>42610</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>78444</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12272; 43801</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5558; 27381</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9514; 34384</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17051; 56728</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18006; 51354</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8568; 34397</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13428; 41890</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27567; 73489</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>35385; 81701</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18173; 49996</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>28301; 63934</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>54779; 115844</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6314</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8505</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13055</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5728</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8214</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6564</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6692</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11814</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14528</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15070</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>19748</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23725</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22860</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1812; 24205</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2803; 37766</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21044</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2060; 20256</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2053; 18565</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21743</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2980; 27887</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5240; 30041</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5368; 31649</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6671; 44795</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>48747</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35002</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40637</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>82577</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>93953</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>86809</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>84294</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>138255</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>142700</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>121811</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>124931</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>220832</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>29116; 74487</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20328; 56946</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23856; 62080</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>55298; 122518</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>67651; 125123</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>63435; 113141</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>61528; 108569</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>106408; 179411</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>107060; 179651</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>94493; 153971</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>95191; 156965</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>175025; 278933</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
